--- a/stock_predictor_ai/data/cleaned/OTIS.xlsx
+++ b/stock_predictor_ai/data/cleaned/OTIS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1321"/>
+  <dimension ref="A1:F1322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26869,6 +26869,26 @@
         <v>75525</v>
       </c>
     </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>99.26999664306641</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>100.1600036621094</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>99.16999816894531</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>100.1600036621094</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>87431</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/OTIS.xlsx
+++ b/stock_predictor_ai/data/cleaned/OTIS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1322"/>
+  <dimension ref="A1:F1323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26889,6 +26889,26 @@
         <v>87431</v>
       </c>
     </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>99.37999725341797</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>101.4199981689453</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>99.34999847412109</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>101.2399978637695</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>2334000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/OTIS.xlsx
+++ b/stock_predictor_ai/data/cleaned/OTIS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1323"/>
+  <dimension ref="A1:F1324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26909,6 +26909,26 @@
         <v>2334000</v>
       </c>
     </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>98.87000274658203</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>99.76999664306641</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>98.80000305175781</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>99.61000061035156</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>287109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/OTIS.xlsx
+++ b/stock_predictor_ai/data/cleaned/OTIS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1324"/>
+  <dimension ref="A1:F1325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26929,6 +26929,26 @@
         <v>287109</v>
       </c>
     </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>85.47499847412109</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>86.18000030517578</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>85.17500305175781</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>882939</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/OTIS.xlsx
+++ b/stock_predictor_ai/data/cleaned/OTIS.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1325"/>
+  <dimension ref="A1:F1320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26849,106 +26851,6 @@
         <v>1925500</v>
       </c>
     </row>
-    <row r="1321">
-      <c r="A1321" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B1321" t="n">
-        <v>99.72000122070312</v>
-      </c>
-      <c r="C1321" t="n">
-        <v>100.0100021362305</v>
-      </c>
-      <c r="D1321" t="n">
-        <v>99.12000274658203</v>
-      </c>
-      <c r="E1321" t="n">
-        <v>99.69999694824219</v>
-      </c>
-      <c r="F1321" t="n">
-        <v>75525</v>
-      </c>
-    </row>
-    <row r="1322">
-      <c r="A1322" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B1322" t="n">
-        <v>99.26999664306641</v>
-      </c>
-      <c r="C1322" t="n">
-        <v>100.1600036621094</v>
-      </c>
-      <c r="D1322" t="n">
-        <v>99.16999816894531</v>
-      </c>
-      <c r="E1322" t="n">
-        <v>100.1600036621094</v>
-      </c>
-      <c r="F1322" t="n">
-        <v>87431</v>
-      </c>
-    </row>
-    <row r="1323">
-      <c r="A1323" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B1323" t="n">
-        <v>99.37999725341797</v>
-      </c>
-      <c r="C1323" t="n">
-        <v>101.4199981689453</v>
-      </c>
-      <c r="D1323" t="n">
-        <v>99.34999847412109</v>
-      </c>
-      <c r="E1323" t="n">
-        <v>101.2399978637695</v>
-      </c>
-      <c r="F1323" t="n">
-        <v>2334000</v>
-      </c>
-    </row>
-    <row r="1324">
-      <c r="A1324" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B1324" t="n">
-        <v>98.87000274658203</v>
-      </c>
-      <c r="C1324" t="n">
-        <v>99.76999664306641</v>
-      </c>
-      <c r="D1324" t="n">
-        <v>98.80000305175781</v>
-      </c>
-      <c r="E1324" t="n">
-        <v>99.61000061035156</v>
-      </c>
-      <c r="F1324" t="n">
-        <v>287109</v>
-      </c>
-    </row>
-    <row r="1325">
-      <c r="A1325" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B1325" t="n">
-        <v>85.47499847412109</v>
-      </c>
-      <c r="C1325" t="n">
-        <v>86.18000030517578</v>
-      </c>
-      <c r="D1325" t="n">
-        <v>85.17500305175781</v>
-      </c>
-      <c r="E1325" t="n">
-        <v>86</v>
-      </c>
-      <c r="F1325" t="n">
-        <v>882939</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
